--- a/Category.xlsx
+++ b/Category.xlsx
@@ -16,42 +16,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t>id</t>
+  </si>
   <si>
     <t>Category</t>
   </si>
   <si>
+    <t>Visual</t>
+  </si>
+  <si>
+    <t>Thermal</t>
+  </si>
+  <si>
+    <t>Sound</t>
+  </si>
+  <si>
+    <t>Chemical</t>
+  </si>
+  <si>
     <t>Description</t>
   </si>
   <si>
-    <t>Basic</t>
-  </si>
-  <si>
-    <t>Centrifuge</t>
-  </si>
-  <si>
-    <t>Cell Culture</t>
-  </si>
-  <si>
-    <t>Electrophoresis</t>
-  </si>
-  <si>
-    <t>Chromatography</t>
-  </si>
-  <si>
-    <t>Spectroscopy</t>
-  </si>
-  <si>
-    <t>Xray</t>
-  </si>
-  <si>
-    <t>abAHSBJSB</t>
-  </si>
-  <si>
-    <t>CDJBJ</t>
-  </si>
-  <si>
-    <t>id</t>
+    <t>Visual desc</t>
+  </si>
+  <si>
+    <t>Thermal desc</t>
+  </si>
+  <si>
+    <t>Sound desc</t>
+  </si>
+  <si>
+    <t>Chemical desc</t>
   </si>
 </sst>
 </file>
@@ -402,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.5703125" defaultRowHeight="15"/>
@@ -414,69 +411,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>11</v>
+      <c r="A1" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
       <c r="B5" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="B6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="B7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="B8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="1" t="s">
         <v>10</v>
       </c>
     </row>
